--- a/biology/Botanique/Gilbert_Nabonnand/Gilbert_Nabonnand.xlsx
+++ b/biology/Botanique/Gilbert_Nabonnand/Gilbert_Nabonnand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilbert Nabonnand (né le 20 mai 1828 à Grézolles[1] et mort le 6 janvier 1903 à Mandelieu-la-Napoule[2]) est un rosiériste réputé de la Côte d'Azur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilbert Nabonnand (né le 20 mai 1828 à Grézolles et mort le 6 janvier 1903 à Mandelieu-la-Napoule) est un rosiériste réputé de la Côte d'Azur.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilbert, dit Philibert, Nabonnand fait son apprentissage à Vienne, Lyon (chez Guillot) et Avignon. Il devient en 1855 chef-jardinier de Lord Brougham au château Eléonore à Cannes[3]. Lord Brougham souhaite un jardin exotique et Nabonnand importe des essences rares de Chine, d'Australie, de Nouvelle-Zélande ou d'Afrique du Sud et crée une roseraie. Gilbert Nabonnand se fait un nom auprès de la clientèle aristocratique de la Côte d'Azur qui y passe les mois d'hiver. Il se marie en 1857 à Thérèse Bertaud avec qui il aura trois enfants. Il fonde ensuite en 1860 à Antibes son entreprise, l'établissement horticole Sainte-Anne, qui propose des palmiers et plantes exotiques, ainsi que des roses dont le commerce explose à cette époque. En 1866, il est domicilié à Golfe-Juan. Nabonnand est cofondateur de la Société pomologique de France et de l'Association horticole lyonnaise ; il est fait officier du Mérite agricole[4].
-Entre 1872 et 1903, Nabonnand a créé près de deux cents[5] variétés de roses thé, certaines aussi pour les fleurs à couper d'autres pour les parfumeurs de Grasse[6]. Les roses Nabonnand sont répertoriées et sont toujours cultivées même si la pépinière a disparu, après avoir été reprise par ses fils Paul (1860-1937) et Clément (1864-1949)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilbert, dit Philibert, Nabonnand fait son apprentissage à Vienne, Lyon (chez Guillot) et Avignon. Il devient en 1855 chef-jardinier de Lord Brougham au château Eléonore à Cannes. Lord Brougham souhaite un jardin exotique et Nabonnand importe des essences rares de Chine, d'Australie, de Nouvelle-Zélande ou d'Afrique du Sud et crée une roseraie. Gilbert Nabonnand se fait un nom auprès de la clientèle aristocratique de la Côte d'Azur qui y passe les mois d'hiver. Il se marie en 1857 à Thérèse Bertaud avec qui il aura trois enfants. Il fonde ensuite en 1860 à Antibes son entreprise, l'établissement horticole Sainte-Anne, qui propose des palmiers et plantes exotiques, ainsi que des roses dont le commerce explose à cette époque. En 1866, il est domicilié à Golfe-Juan. Nabonnand est cofondateur de la Société pomologique de France et de l'Association horticole lyonnaise ; il est fait officier du Mérite agricole.
+Entre 1872 et 1903, Nabonnand a créé près de deux cents variétés de roses thé, certaines aussi pour les fleurs à couper d'autres pour les parfumeurs de Grasse. Les roses Nabonnand sont répertoriées et sont toujours cultivées même si la pépinière a disparu, après avoir été reprise par ses fils Paul (1860-1937) et Clément (1864-1949).
 Les roses Nabonnand ont obtenu de nombreux prix et distinctions.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'ordre du Mérite agricole.</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Quelques obtentions fameuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'Isabelle Nabonnand', 1874 rosier thé
 'Madame Bennett', 1876 rosier thé
@@ -623,9 +641,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison Pernet-Ducher lui dédie un rosier à son nom 'Gilbert Nabonnand' en 1898[8] et Clément Nabonnand dédie à son père le rosier thé 'Souvenir de Gilbert Nabonnand' en 1920.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison Pernet-Ducher lui dédie un rosier à son nom 'Gilbert Nabonnand' en 1898 et Clément Nabonnand dédie à son père le rosier thé 'Souvenir de Gilbert Nabonnand' en 1920.
 			'Lily Mestschersky', 1878
 			'Papillon', 1881
 			'Marie d'Orléans', 1884
